--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.4625618884189</v>
+        <v>12.55301866666667</v>
       </c>
       <c r="H2">
-        <v>12.4625618884189</v>
+        <v>37.65905600000001</v>
       </c>
       <c r="I2">
-        <v>0.2821147057967092</v>
+        <v>0.2692278546031339</v>
       </c>
       <c r="J2">
-        <v>0.2821147057967092</v>
+        <v>0.3068924341132449</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.82183324110304</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N2">
-        <v>3.82183324110304</v>
+        <v>11.96377</v>
       </c>
       <c r="O2">
-        <v>0.05626203830071427</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P2">
-        <v>0.05626203830071427</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q2">
-        <v>47.62983329446323</v>
+        <v>50.06047604456889</v>
       </c>
       <c r="R2">
-        <v>47.62983329446323</v>
+        <v>450.5442844011201</v>
       </c>
       <c r="S2">
-        <v>0.01587234838272919</v>
+        <v>0.01519679002025189</v>
       </c>
       <c r="T2">
-        <v>0.01587234838272919</v>
+        <v>0.01837077785720831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.4625618884189</v>
+        <v>12.55301866666667</v>
       </c>
       <c r="H3">
-        <v>12.4625618884189</v>
+        <v>37.65905600000001</v>
       </c>
       <c r="I3">
-        <v>0.2821147057967092</v>
+        <v>0.2692278546031339</v>
       </c>
       <c r="J3">
-        <v>0.2821147057967092</v>
+        <v>0.3068924341132449</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.817923265941</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N3">
-        <v>51.817923265941</v>
+        <v>162.299907</v>
       </c>
       <c r="O3">
-        <v>0.7628229175719926</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P3">
-        <v>0.7628229175719926</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q3">
-        <v>645.7840756311313</v>
+        <v>679.1179207230882</v>
       </c>
       <c r="R3">
-        <v>645.7840756311313</v>
+        <v>6112.061286507794</v>
       </c>
       <c r="S3">
-        <v>0.21520356296581</v>
+        <v>0.2061588953135517</v>
       </c>
       <c r="T3">
-        <v>0.21520356296581</v>
+        <v>0.2492170559733736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.4625618884189</v>
+        <v>12.55301866666667</v>
       </c>
       <c r="H4">
-        <v>12.4625618884189</v>
+        <v>37.65905600000001</v>
       </c>
       <c r="I4">
-        <v>0.2821147057967092</v>
+        <v>0.2692278546031339</v>
       </c>
       <c r="J4">
-        <v>0.2821147057967092</v>
+        <v>0.3068924341132449</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.253021148032491</v>
+        <v>0.25851</v>
       </c>
       <c r="N4">
-        <v>0.253021148032491</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O4">
-        <v>0.003724779346308193</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P4">
-        <v>0.003724779346308193</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q4">
-        <v>3.153291716433719</v>
+        <v>3.24508085552</v>
       </c>
       <c r="R4">
-        <v>3.153291716433719</v>
+        <v>29.20572769968</v>
       </c>
       <c r="S4">
-        <v>0.001050815029441395</v>
+        <v>0.0009851047424353648</v>
       </c>
       <c r="T4">
-        <v>0.001050815029441395</v>
+        <v>0.001190852829133355</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.4625618884189</v>
+        <v>12.55301866666667</v>
       </c>
       <c r="H5">
-        <v>12.4625618884189</v>
+        <v>37.65905600000001</v>
       </c>
       <c r="I5">
-        <v>0.2821147057967092</v>
+        <v>0.2692278546031339</v>
       </c>
       <c r="J5">
-        <v>0.2821147057967092</v>
+        <v>0.3068924341132449</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>12.0363866008605</v>
+        <v>0.213071</v>
       </c>
       <c r="N5">
-        <v>12.0363866008605</v>
+        <v>0.639213</v>
       </c>
       <c r="O5">
-        <v>0.1771902647809849</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P5">
-        <v>0.1771902647809849</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q5">
-        <v>150.00421292616</v>
+        <v>2.674684240325334</v>
       </c>
       <c r="R5">
-        <v>150.00421292616</v>
+        <v>24.07215816292801</v>
       </c>
       <c r="S5">
-        <v>0.04998797941872856</v>
+        <v>0.000811950224654542</v>
       </c>
       <c r="T5">
-        <v>0.04998797941872856</v>
+        <v>0.0009815334151726167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.417889249706739</v>
+        <v>12.55301866666667</v>
       </c>
       <c r="H6">
-        <v>8.417889249706739</v>
+        <v>37.65905600000001</v>
       </c>
       <c r="I6">
-        <v>0.1905555511276651</v>
+        <v>0.2692278546031339</v>
       </c>
       <c r="J6">
-        <v>0.1905555511276651</v>
+        <v>0.3068924341132449</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.82183324110304</v>
+        <v>12.090976</v>
       </c>
       <c r="N6">
-        <v>3.82183324110304</v>
+        <v>24.181952</v>
       </c>
       <c r="O6">
-        <v>0.05626203830071427</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P6">
-        <v>0.05626203830071427</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q6">
-        <v>32.17176895445314</v>
+        <v>151.7782474262187</v>
       </c>
       <c r="R6">
-        <v>32.17176895445314</v>
+        <v>910.6694845573122</v>
       </c>
       <c r="S6">
-        <v>0.01072104371595841</v>
+        <v>0.04607511430224046</v>
       </c>
       <c r="T6">
-        <v>0.01072104371595841</v>
+        <v>0.03713221403835699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.417889249706739</v>
+        <v>9.354491666666666</v>
       </c>
       <c r="H7">
-        <v>8.417889249706739</v>
+        <v>28.063475</v>
       </c>
       <c r="I7">
-        <v>0.1905555511276651</v>
+        <v>0.200628214551068</v>
       </c>
       <c r="J7">
-        <v>0.1905555511276651</v>
+        <v>0.2286958056629511</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>51.817923265941</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N7">
-        <v>51.817923265941</v>
+        <v>11.96377</v>
       </c>
       <c r="O7">
-        <v>0.7628229175719926</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P7">
-        <v>0.7628229175719926</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q7">
-        <v>436.1975392024935</v>
+        <v>37.30499558897222</v>
       </c>
       <c r="R7">
-        <v>436.1975392024935</v>
+        <v>335.74496030075</v>
       </c>
       <c r="S7">
-        <v>0.1453601414707445</v>
+        <v>0.01132462632131799</v>
       </c>
       <c r="T7">
-        <v>0.1453601414707445</v>
+        <v>0.01368987754569097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.417889249706739</v>
+        <v>9.354491666666666</v>
       </c>
       <c r="H8">
-        <v>8.417889249706739</v>
+        <v>28.063475</v>
       </c>
       <c r="I8">
-        <v>0.1905555511276651</v>
+        <v>0.200628214551068</v>
       </c>
       <c r="J8">
-        <v>0.1905555511276651</v>
+        <v>0.2286958056629511</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.253021148032491</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N8">
-        <v>0.253021148032491</v>
+        <v>162.299907</v>
       </c>
       <c r="O8">
-        <v>0.003724779346308193</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P8">
-        <v>0.003724779346308193</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q8">
-        <v>2.129904001971163</v>
+        <v>506.077709177425</v>
       </c>
       <c r="R8">
-        <v>2.129904001971163</v>
+        <v>4554.699382596826</v>
       </c>
       <c r="S8">
-        <v>0.0007097773811647018</v>
+        <v>0.1536293157390742</v>
       </c>
       <c r="T8">
-        <v>0.0007097773811647018</v>
+        <v>0.1857161958569107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.417889249706739</v>
+        <v>9.354491666666666</v>
       </c>
       <c r="H9">
-        <v>8.417889249706739</v>
+        <v>28.063475</v>
       </c>
       <c r="I9">
-        <v>0.1905555511276651</v>
+        <v>0.200628214551068</v>
       </c>
       <c r="J9">
-        <v>0.1905555511276651</v>
+        <v>0.2286958056629511</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0363866008605</v>
+        <v>0.25851</v>
       </c>
       <c r="N9">
-        <v>12.0363866008605</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O9">
-        <v>0.1771902647809849</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P9">
-        <v>0.1771902647809849</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q9">
-        <v>101.3209693726978</v>
+        <v>2.418229640749999</v>
       </c>
       <c r="R9">
-        <v>101.3209693726978</v>
+        <v>21.76406676675</v>
       </c>
       <c r="S9">
-        <v>0.03376458855979748</v>
+        <v>0.0007340986537664752</v>
       </c>
       <c r="T9">
-        <v>0.03376458855979748</v>
+        <v>0.0008874218355091846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.10701935044662</v>
+        <v>9.354491666666666</v>
       </c>
       <c r="H10">
-        <v>4.10701935044662</v>
+        <v>28.063475</v>
       </c>
       <c r="I10">
-        <v>0.09297049564338296</v>
+        <v>0.200628214551068</v>
       </c>
       <c r="J10">
-        <v>0.09297049564338296</v>
+        <v>0.2286958056629511</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.82183324110304</v>
+        <v>0.213071</v>
       </c>
       <c r="N10">
-        <v>3.82183324110304</v>
+        <v>0.639213</v>
       </c>
       <c r="O10">
-        <v>0.05626203830071427</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P10">
-        <v>0.05626203830071427</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q10">
-        <v>15.69634307539031</v>
+        <v>1.993170893908333</v>
       </c>
       <c r="R10">
-        <v>15.69634307539031</v>
+        <v>17.938538045175</v>
       </c>
       <c r="S10">
-        <v>0.005230709586724402</v>
+        <v>0.0006050641532500742</v>
       </c>
       <c r="T10">
-        <v>0.005230709586724402</v>
+        <v>0.0007314373057668079</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.10701935044662</v>
+        <v>9.354491666666666</v>
       </c>
       <c r="H11">
-        <v>4.10701935044662</v>
+        <v>28.063475</v>
       </c>
       <c r="I11">
-        <v>0.09297049564338296</v>
+        <v>0.200628214551068</v>
       </c>
       <c r="J11">
-        <v>0.09297049564338296</v>
+        <v>0.2286958056629511</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.817923265941</v>
+        <v>12.090976</v>
       </c>
       <c r="N11">
-        <v>51.817923265941</v>
+        <v>24.181952</v>
       </c>
       <c r="O11">
-        <v>0.7628229175719926</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P11">
-        <v>0.7628229175719926</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q11">
-        <v>212.8172135531778</v>
+        <v>113.1049342338667</v>
       </c>
       <c r="R11">
-        <v>212.8172135531778</v>
+        <v>678.6296054032001</v>
       </c>
       <c r="S11">
-        <v>0.07092002473479962</v>
+        <v>0.03433510968365929</v>
       </c>
       <c r="T11">
-        <v>0.07092002473479962</v>
+        <v>0.02767087311907341</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.10701935044662</v>
+        <v>4.616516333333333</v>
       </c>
       <c r="H12">
-        <v>4.10701935044662</v>
+        <v>13.849549</v>
       </c>
       <c r="I12">
-        <v>0.09297049564338296</v>
+        <v>0.09901162590190733</v>
       </c>
       <c r="J12">
-        <v>0.09297049564338296</v>
+        <v>0.1128632062359889</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.253021148032491</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N12">
-        <v>0.253021148032491</v>
+        <v>11.96377</v>
       </c>
       <c r="O12">
-        <v>0.003724779346308193</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P12">
-        <v>0.003724779346308193</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q12">
-        <v>1.039162751041659</v>
+        <v>18.41031320441444</v>
       </c>
       <c r="R12">
-        <v>1.039162751041659</v>
+        <v>165.69281883973</v>
       </c>
       <c r="S12">
-        <v>0.0003462945819885087</v>
+        <v>0.005588793516974762</v>
       </c>
       <c r="T12">
-        <v>0.0003462945819885087</v>
+        <v>0.006756063882788815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.10701935044662</v>
+        <v>4.616516333333333</v>
       </c>
       <c r="H13">
-        <v>4.10701935044662</v>
+        <v>13.849549</v>
       </c>
       <c r="I13">
-        <v>0.09297049564338296</v>
+        <v>0.09901162590190733</v>
       </c>
       <c r="J13">
-        <v>0.09297049564338296</v>
+        <v>0.1128632062359889</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0363866008605</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N13">
-        <v>12.0363866008605</v>
+        <v>162.299907</v>
       </c>
       <c r="O13">
-        <v>0.1771902647809849</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P13">
-        <v>0.1771902647809849</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q13">
-        <v>49.43367267919049</v>
+        <v>249.753390521327</v>
       </c>
       <c r="R13">
-        <v>49.43367267919049</v>
+        <v>2247.780514691943</v>
       </c>
       <c r="S13">
-        <v>0.01647346673987043</v>
+        <v>0.07581729405088923</v>
       </c>
       <c r="T13">
-        <v>0.01647346673987043</v>
+        <v>0.09165242560352495</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.77594774497858</v>
+        <v>4.616516333333333</v>
       </c>
       <c r="H14">
-        <v>2.77594774497858</v>
+        <v>13.849549</v>
       </c>
       <c r="I14">
-        <v>0.06283906057143963</v>
+        <v>0.09901162590190733</v>
       </c>
       <c r="J14">
-        <v>0.06283906057143963</v>
+        <v>0.1128632062359889</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.82183324110304</v>
+        <v>0.25851</v>
       </c>
       <c r="N14">
-        <v>3.82183324110304</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O14">
-        <v>0.05626203830071427</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P14">
-        <v>0.05626203830071427</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q14">
-        <v>10.60920936732416</v>
+        <v>1.19341563733</v>
       </c>
       <c r="R14">
-        <v>10.60920936732416</v>
+        <v>10.74074073597</v>
       </c>
       <c r="S14">
-        <v>0.003535453632651241</v>
+        <v>0.0003622835474285645</v>
       </c>
       <c r="T14">
-        <v>0.003535453632651241</v>
+        <v>0.0004379497619077606</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.77594774497858</v>
+        <v>4.616516333333333</v>
       </c>
       <c r="H15">
-        <v>2.77594774497858</v>
+        <v>13.849549</v>
       </c>
       <c r="I15">
-        <v>0.06283906057143963</v>
+        <v>0.09901162590190733</v>
       </c>
       <c r="J15">
-        <v>0.06283906057143963</v>
+        <v>0.1128632062359889</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>51.817923265941</v>
+        <v>0.213071</v>
       </c>
       <c r="N15">
-        <v>51.817923265941</v>
+        <v>0.639213</v>
       </c>
       <c r="O15">
-        <v>0.7628229175719926</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P15">
-        <v>0.7628229175719926</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q15">
-        <v>143.843847239562</v>
+        <v>0.9836457516596667</v>
       </c>
       <c r="R15">
-        <v>143.843847239562</v>
+        <v>8.852811764937</v>
       </c>
       <c r="S15">
-        <v>0.04793507552258874</v>
+        <v>0.0002986039910802355</v>
       </c>
       <c r="T15">
-        <v>0.04793507552258874</v>
+        <v>0.000360970150939803</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.77594774497858</v>
+        <v>4.616516333333333</v>
       </c>
       <c r="H16">
-        <v>2.77594774497858</v>
+        <v>13.849549</v>
       </c>
       <c r="I16">
-        <v>0.06283906057143963</v>
+        <v>0.09901162590190733</v>
       </c>
       <c r="J16">
-        <v>0.06283906057143963</v>
+        <v>0.1128632062359889</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.253021148032491</v>
+        <v>12.090976</v>
       </c>
       <c r="N16">
-        <v>0.253021148032491</v>
+        <v>24.181952</v>
       </c>
       <c r="O16">
-        <v>0.003724779346308193</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P16">
-        <v>0.003724779346308193</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q16">
-        <v>0.7023734853126848</v>
+        <v>55.81818818994134</v>
       </c>
       <c r="R16">
-        <v>0.7023734853126848</v>
+        <v>334.909129139648</v>
       </c>
       <c r="S16">
-        <v>0.0002340616349579079</v>
+        <v>0.01694465079553455</v>
       </c>
       <c r="T16">
-        <v>0.0002340616349579079</v>
+        <v>0.01365579683682759</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.77594774497858</v>
+        <v>2.934898</v>
       </c>
       <c r="H17">
-        <v>2.77594774497858</v>
+        <v>8.804694</v>
       </c>
       <c r="I17">
-        <v>0.06283906057143963</v>
+        <v>0.06294552035656671</v>
       </c>
       <c r="J17">
-        <v>0.06283906057143963</v>
+        <v>0.07175150575421439</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.0363866008605</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N17">
-        <v>12.0363866008605</v>
+        <v>11.96377</v>
       </c>
       <c r="O17">
-        <v>0.1771902647809849</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P17">
-        <v>0.1771902647809849</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q17">
-        <v>33.4123802423491</v>
+        <v>11.70414821515333</v>
       </c>
       <c r="R17">
-        <v>33.4123802423491</v>
+        <v>105.33733393638</v>
       </c>
       <c r="S17">
-        <v>0.01113446978124174</v>
+        <v>0.003553012213332477</v>
       </c>
       <c r="T17">
-        <v>0.01113446978124174</v>
+        <v>0.004295091134910413</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.4120948905306</v>
+        <v>2.934898</v>
       </c>
       <c r="H18">
-        <v>16.4120948905306</v>
+        <v>8.804694</v>
       </c>
       <c r="I18">
-        <v>0.3715201868608032</v>
+        <v>0.06294552035656671</v>
       </c>
       <c r="J18">
-        <v>0.3715201868608032</v>
+        <v>0.07175150575421439</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.82183324110304</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N18">
-        <v>3.82183324110304</v>
+        <v>162.299907</v>
       </c>
       <c r="O18">
-        <v>0.05626203830071427</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P18">
-        <v>0.05626203830071427</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q18">
-        <v>62.7242898087672</v>
+        <v>158.777890818162</v>
       </c>
       <c r="R18">
-        <v>62.7242898087672</v>
+        <v>1429.001017363458</v>
       </c>
       <c r="S18">
-        <v>0.02090248298265103</v>
+        <v>0.0481999864418762</v>
       </c>
       <c r="T18">
-        <v>0.02090248298265103</v>
+        <v>0.0582669920729406</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.4120948905306</v>
+        <v>2.934898</v>
       </c>
       <c r="H19">
-        <v>16.4120948905306</v>
+        <v>8.804694</v>
       </c>
       <c r="I19">
-        <v>0.3715201868608032</v>
+        <v>0.06294552035656671</v>
       </c>
       <c r="J19">
-        <v>0.3715201868608032</v>
+        <v>0.07175150575421439</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>51.817923265941</v>
+        <v>0.25851</v>
       </c>
       <c r="N19">
-        <v>51.817923265941</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O19">
-        <v>0.7628229175719926</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P19">
-        <v>0.7628229175719926</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q19">
-        <v>850.440673670857</v>
+        <v>0.7587004819799998</v>
       </c>
       <c r="R19">
-        <v>850.440673670857</v>
+        <v>6.828304337819999</v>
       </c>
       <c r="S19">
-        <v>0.2834041128780497</v>
+        <v>0.0002303176642317376</v>
       </c>
       <c r="T19">
-        <v>0.2834041128780497</v>
+        <v>0.000278421603546129</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.4120948905306</v>
+        <v>2.934898</v>
       </c>
       <c r="H20">
-        <v>16.4120948905306</v>
+        <v>8.804694</v>
       </c>
       <c r="I20">
-        <v>0.3715201868608032</v>
+        <v>0.06294552035656671</v>
       </c>
       <c r="J20">
-        <v>0.3715201868608032</v>
+        <v>0.07175150575421439</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.253021148032491</v>
+        <v>0.213071</v>
       </c>
       <c r="N20">
-        <v>0.253021148032491</v>
+        <v>0.639213</v>
       </c>
       <c r="O20">
-        <v>0.003724779346308193</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P20">
-        <v>0.003724779346308193</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q20">
-        <v>4.152607090820232</v>
+        <v>0.625341651758</v>
       </c>
       <c r="R20">
-        <v>4.152607090820232</v>
+        <v>5.628074865822</v>
       </c>
       <c r="S20">
-        <v>0.00138383071875568</v>
+        <v>0.0001898341071352001</v>
       </c>
       <c r="T20">
-        <v>0.00138383071875568</v>
+        <v>0.000229482687281642</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.4120948905306</v>
+        <v>2.934898</v>
       </c>
       <c r="H21">
-        <v>16.4120948905306</v>
+        <v>8.804694</v>
       </c>
       <c r="I21">
-        <v>0.3715201868608032</v>
+        <v>0.06294552035656671</v>
       </c>
       <c r="J21">
-        <v>0.3715201868608032</v>
+        <v>0.07175150575421439</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.0363866008605</v>
+        <v>12.090976</v>
       </c>
       <c r="N21">
-        <v>12.0363866008605</v>
+        <v>24.181952</v>
       </c>
       <c r="O21">
-        <v>0.1771902647809849</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P21">
-        <v>0.1771902647809849</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q21">
-        <v>197.5423190324336</v>
+        <v>35.485781280448</v>
       </c>
       <c r="R21">
-        <v>197.5423190324336</v>
+        <v>212.914687682688</v>
       </c>
       <c r="S21">
-        <v>0.06582976028134671</v>
+        <v>0.0107723699299911</v>
       </c>
       <c r="T21">
-        <v>0.06582976028134671</v>
+        <v>0.008681518255535601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.167078</v>
+      </c>
+      <c r="H22">
+        <v>34.334156</v>
+      </c>
+      <c r="I22">
+        <v>0.3681867845873241</v>
+      </c>
+      <c r="J22">
+        <v>0.2797970482336007</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.987923333333333</v>
+      </c>
+      <c r="N22">
+        <v>11.96377</v>
+      </c>
+      <c r="O22">
+        <v>0.05644583114423032</v>
+      </c>
+      <c r="P22">
+        <v>0.05986064110798311</v>
+      </c>
+      <c r="Q22">
+        <v>68.46099092135333</v>
+      </c>
+      <c r="R22">
+        <v>410.76594552812</v>
+      </c>
+      <c r="S22">
+        <v>0.0207826090723532</v>
+      </c>
+      <c r="T22">
+        <v>0.01674883068738461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.167078</v>
+      </c>
+      <c r="H23">
+        <v>34.334156</v>
+      </c>
+      <c r="I23">
+        <v>0.3681867845873241</v>
+      </c>
+      <c r="J23">
+        <v>0.2797970482336007</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>54.09996900000001</v>
+      </c>
+      <c r="N23">
+        <v>162.299907</v>
+      </c>
+      <c r="O23">
+        <v>0.7657413294677419</v>
+      </c>
+      <c r="P23">
+        <v>0.812066471086124</v>
+      </c>
+      <c r="Q23">
+        <v>928.7383876205821</v>
+      </c>
+      <c r="R23">
+        <v>5572.430325723492</v>
+      </c>
+      <c r="S23">
+        <v>0.2819358379223507</v>
+      </c>
+      <c r="T23">
+        <v>0.2272138015793742</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.167078</v>
+      </c>
+      <c r="H24">
+        <v>34.334156</v>
+      </c>
+      <c r="I24">
+        <v>0.3681867845873241</v>
+      </c>
+      <c r="J24">
+        <v>0.2797970482336007</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.25851</v>
+      </c>
+      <c r="N24">
+        <v>0.7755299999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.003659000083358752</v>
+      </c>
+      <c r="P24">
+        <v>0.003880359033855895</v>
+      </c>
+      <c r="Q24">
+        <v>4.437861333779999</v>
+      </c>
+      <c r="R24">
+        <v>26.62716800268</v>
+      </c>
+      <c r="S24">
+        <v>0.00134719547549661</v>
+      </c>
+      <c r="T24">
+        <v>0.001085713003759466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.167078</v>
+      </c>
+      <c r="H25">
+        <v>34.334156</v>
+      </c>
+      <c r="I25">
+        <v>0.3681867845873241</v>
+      </c>
+      <c r="J25">
+        <v>0.2797970482336007</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.213071</v>
+      </c>
+      <c r="N25">
+        <v>0.639213</v>
+      </c>
+      <c r="O25">
+        <v>0.003015847768988947</v>
+      </c>
+      <c r="P25">
+        <v>0.003198297859667748</v>
+      </c>
+      <c r="Q25">
+        <v>3.657806476538</v>
+      </c>
+      <c r="R25">
+        <v>21.946838859228</v>
+      </c>
+      <c r="S25">
+        <v>0.001110395292868895</v>
+      </c>
+      <c r="T25">
+        <v>0.000894874300506879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.167078</v>
+      </c>
+      <c r="H26">
+        <v>34.334156</v>
+      </c>
+      <c r="I26">
+        <v>0.3681867845873241</v>
+      </c>
+      <c r="J26">
+        <v>0.2797970482336007</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.090976</v>
+      </c>
+      <c r="N26">
+        <v>24.181952</v>
+      </c>
+      <c r="O26">
+        <v>0.1711379915356802</v>
+      </c>
+      <c r="P26">
+        <v>0.1209942309123691</v>
+      </c>
+      <c r="Q26">
+        <v>207.566728088128</v>
+      </c>
+      <c r="R26">
+        <v>830.2669123525121</v>
+      </c>
+      <c r="S26">
+        <v>0.06301074682425477</v>
+      </c>
+      <c r="T26">
+        <v>0.03385382866257557</v>
       </c>
     </row>
   </sheetData>
